--- a/contactus.xlsx
+++ b/contactus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s524988\Desktop\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s524988\Desktop\testing\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
   <si>
     <t>Test case number</t>
   </si>
@@ -183,6 +183,135 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Verify the text</t>
+  </si>
+  <si>
+    <t>Go to homepage of partyguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text should be present </t>
+  </si>
+  <si>
+    <t>Text is present</t>
+  </si>
+  <si>
+    <t>Click on contactus page</t>
+  </si>
+  <si>
+    <t>verify the text is present</t>
+  </si>
+  <si>
+    <t>Login button</t>
+  </si>
+  <si>
+    <t>Redirect to login page</t>
+  </si>
+  <si>
+    <t>login page is displayed</t>
+  </si>
+  <si>
+    <t>Click on login button</t>
+  </si>
+  <si>
+    <t>Check the text fields</t>
+  </si>
+  <si>
+    <t>Should be able to type</t>
+  </si>
+  <si>
+    <t>User can be able to type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on the text field </t>
+  </si>
+  <si>
+    <t>text field should be enabled</t>
+  </si>
+  <si>
+    <t>Check for the text present in contactus</t>
+  </si>
+  <si>
+    <t>Contact details</t>
+  </si>
+  <si>
+    <t>Go to home page of partyguard</t>
+  </si>
+  <si>
+    <t>contact details should be displayed</t>
+  </si>
+  <si>
+    <t>contact details are displayed</t>
+  </si>
+  <si>
+    <t>Send message button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter the details </t>
+  </si>
+  <si>
+    <t>click the send message button</t>
+  </si>
+  <si>
+    <t>message should be sent to email</t>
+  </si>
+  <si>
+    <t>message is sent</t>
+  </si>
+  <si>
+    <t>Empty text field validation</t>
+  </si>
+  <si>
+    <t>validation should be give to fill the textfield</t>
+  </si>
+  <si>
+    <t>Validation is given</t>
+  </si>
+  <si>
+    <t>click on submit button</t>
+  </si>
+  <si>
+    <t>Email functionality</t>
+  </si>
+  <si>
+    <t>quote should be sent to the user through email</t>
+  </si>
+  <si>
+    <t>quote is received through email</t>
+  </si>
+  <si>
+    <t>enter your name in the text field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter the email address </t>
+  </si>
+  <si>
+    <t>email text content</t>
+  </si>
+  <si>
+    <t>Text is viewed</t>
+  </si>
+  <si>
+    <t>Check the inbox of your email</t>
+  </si>
+  <si>
+    <t>view the quote from partyguard service</t>
+  </si>
+  <si>
+    <t>Text allignment</t>
+  </si>
+  <si>
+    <t>Text should be readable and alligned properly</t>
+  </si>
+  <si>
+    <t>text is alligned properly and readable</t>
+  </si>
+  <si>
+    <t>Verify the text allignment</t>
+  </si>
+  <si>
+    <t>Message text should be viewed by the user</t>
   </si>
 </sst>
 </file>
@@ -514,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,9 +999,334 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
